--- a/Real Estate Post.xlsx
+++ b/Real Estate Post.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B1BE77-9C2A-44DD-858E-03BBE6E05F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBB1F15-245D-4EAE-8425-20CBCA74361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AE67DF7-78A0-407D-8E2D-81E9BAB3CF9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Size" sheetId="1" r:id="rId1"/>
+    <sheet name="SIZE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="4">
   <si>
     <t>24" x 30"</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>4/4 (4 color both sides)</t>
+  </si>
+  <si>
+    <t>18" x 24"</t>
   </si>
 </sst>
 </file>
@@ -60,12 +63,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,8 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,15 +413,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E38542-6FE0-445A-BF52-92460ECF44D8}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A55:H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -417,19 +441,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>21.75</v>
       </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>108.75</v>
-      </c>
-      <c r="H1">
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H1" s="1">
         <f>E1*G1/F1</f>
         <v>21.75</v>
       </c>
@@ -444,20 +468,20 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>43.5</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>108.75</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H7" si="0">E2*G2/F2</f>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H8" si="0">E2*G2/F2</f>
         <v>43.5</v>
       </c>
     </row>
@@ -471,19 +495,19 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>65.25</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>108.75</v>
-      </c>
-      <c r="H3">
+      <c r="D3" s="1">
+        <v>65.25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H3" s="1">
         <f t="shared" si="0"/>
         <v>65.25</v>
       </c>
@@ -498,19 +522,19 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>87</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>108.75</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -525,57 +549,2586 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>108.75</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>108.75</v>
-      </c>
-      <c r="H5">
+      <c r="D5" s="1">
+        <v>108.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>108.75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>130.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>108.75</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>130.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <v>152.25</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>7</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>108.75</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>152.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>174</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>195.75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9:H50" si="1">E9*G9/F9</f>
+        <v>195.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>217.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>239.25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>239.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>261</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>282.75</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>282.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>304.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>326.25</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>326.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>348</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>369.75</v>
+      </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>369.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>391.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>391.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>413.25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>413.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>435</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>456.75</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>456.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>478.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>478.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>500.25</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>500.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>522</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>543.75</v>
+      </c>
+      <c r="E25" s="2">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>543.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>565.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>565.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>587.25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>587.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>609</v>
+      </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>630.75</v>
+      </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>630.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>652.5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>652.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>674.25</v>
+      </c>
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>674.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>696</v>
+      </c>
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>717.75</v>
+      </c>
+      <c r="E33" s="2">
+        <v>33</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>717.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>739.5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>34</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>739.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>761.25</v>
+      </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>761.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>783</v>
+      </c>
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
+      <c r="F36" s="2">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>804.75</v>
+      </c>
+      <c r="E37" s="2">
+        <v>37</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>804.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>826.5</v>
+      </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>826.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>848.25</v>
+      </c>
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
+        <v>848.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>870</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>891.75</v>
+      </c>
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" s="2">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>891.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>913.5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>42</v>
+      </c>
+      <c r="F42" s="2">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="1"/>
+        <v>913.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>935.25</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43</v>
+      </c>
+      <c r="F43" s="2">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
+        <v>935.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>957</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44</v>
+      </c>
+      <c r="F44" s="2">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="1"/>
+        <v>957</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>978.75</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>978.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1000.5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="1"/>
+        <v>1000.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1022.25</v>
+      </c>
+      <c r="E47" s="2">
+        <v>47</v>
+      </c>
+      <c r="F47" s="2">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="1"/>
+        <v>1022.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1044</v>
+      </c>
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1065.75</v>
+      </c>
+      <c r="E49" s="2">
+        <v>49</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="1"/>
+        <v>1065.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1087.5</v>
+      </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>108.75</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="1"/>
+        <v>1087.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>65.25</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>65.25</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" ref="H55:H56" si="2">E55*G55/F55</f>
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>65.25</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>65.25</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="2"/>
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>65.25</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>65.25</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" ref="H57" si="3">E57*G57/F57</f>
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>65.25</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>65.25</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" ref="H58" si="4">E58*G58/F58</f>
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>65.25</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>65.25</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" ref="H59:H63" si="5">E59*G59/F59</f>
+        <v>65.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>65.25</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>65.25</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="5"/>
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>65.25</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>65.25</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="5"/>
+        <v>91.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>65.25</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>65.25</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="5"/>
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>65.25</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>65.25</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="5"/>
+        <v>117.45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>65.25</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>65.25</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" ref="H64:H82" si="6">E64*G64/F64</f>
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>65.25</v>
+      </c>
+      <c r="E65">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>65.25</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="6"/>
+        <v>143.55000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>65.25</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>65.25</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="6"/>
+        <v>156.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>65.25</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>65.25</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="6"/>
+        <v>169.65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>65.25</v>
+      </c>
+      <c r="E68">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>65.25</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="6"/>
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>65.25</v>
+      </c>
+      <c r="E69">
+        <v>15</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>65.25</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="6"/>
+        <v>195.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>65.25</v>
+      </c>
+      <c r="E70">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>65.25</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="6"/>
+        <v>208.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>65.25</v>
+      </c>
+      <c r="E71">
+        <v>17</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>65.25</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="6"/>
+        <v>221.85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>65.25</v>
+      </c>
+      <c r="E72">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>65.25</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="6"/>
+        <v>234.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>65.25</v>
+      </c>
+      <c r="E73">
+        <v>19</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>65.25</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="6"/>
+        <v>247.95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>65.25</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>65.25</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="6"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>65.25</v>
+      </c>
+      <c r="E75">
+        <v>21</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>65.25</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="6"/>
+        <v>274.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>65.25</v>
+      </c>
+      <c r="E76">
+        <v>22</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>65.25</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="6"/>
+        <v>287.10000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>65.25</v>
+      </c>
+      <c r="E77">
+        <v>23</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>65.25</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="6"/>
+        <v>300.14999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>65.25</v>
+      </c>
+      <c r="E78">
+        <v>24</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>65.25</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="6"/>
+        <v>313.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>65.25</v>
+      </c>
+      <c r="E79">
+        <v>25</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>65.25</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="6"/>
+        <v>326.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>65.25</v>
+      </c>
+      <c r="E80">
+        <v>26</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>65.25</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="6"/>
+        <v>339.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>65.25</v>
+      </c>
+      <c r="E81">
+        <v>27</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>65.25</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="6"/>
+        <v>352.35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>65.25</v>
+      </c>
+      <c r="E82">
+        <v>28</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>65.25</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="6"/>
+        <v>365.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>65.25</v>
+      </c>
+      <c r="E83">
+        <v>29</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>65.25</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" ref="H83:H104" si="7">E83*G83/F83</f>
+        <v>378.45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>65.25</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>65.25</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="7"/>
+        <v>391.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>65.25</v>
+      </c>
+      <c r="E85">
+        <v>31</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>65.25</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="7"/>
+        <v>404.55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>65.25</v>
+      </c>
+      <c r="E86">
+        <v>32</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>65.25</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="7"/>
+        <v>417.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>65.25</v>
+      </c>
+      <c r="E87">
+        <v>33</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>65.25</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="7"/>
+        <v>430.65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>65.25</v>
+      </c>
+      <c r="E88">
+        <v>34</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>65.25</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="7"/>
+        <v>443.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>65.25</v>
+      </c>
+      <c r="E89">
+        <v>35</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>65.25</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="7"/>
+        <v>456.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>65.25</v>
+      </c>
+      <c r="E90">
+        <v>36</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>65.25</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="7"/>
+        <v>469.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>65.25</v>
+      </c>
+      <c r="E91">
+        <v>37</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>65.25</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="7"/>
+        <v>482.85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>65.25</v>
+      </c>
+      <c r="E92">
+        <v>38</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>65.25</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="7"/>
+        <v>495.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>65.25</v>
+      </c>
+      <c r="E93">
+        <v>39</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>65.25</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="7"/>
+        <v>508.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>65.25</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>65.25</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="7"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>65.25</v>
+      </c>
+      <c r="E95">
+        <v>41</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>65.25</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="7"/>
+        <v>535.04999999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>65.25</v>
+      </c>
+      <c r="E96">
+        <v>42</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>65.25</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="7"/>
+        <v>548.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>65.25</v>
+      </c>
+      <c r="E97">
+        <v>43</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>65.25</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="7"/>
+        <v>561.15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>65.25</v>
+      </c>
+      <c r="E98">
+        <v>44</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>65.25</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="7"/>
+        <v>574.20000000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>65.25</v>
+      </c>
+      <c r="E99">
+        <v>45</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>65.25</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="7"/>
+        <v>587.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>65.25</v>
+      </c>
+      <c r="E100">
+        <v>46</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <v>65.25</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="7"/>
+        <v>600.29999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>65.25</v>
+      </c>
+      <c r="E101">
+        <v>47</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101">
+        <v>65.25</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="7"/>
+        <v>613.35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>65.25</v>
+      </c>
+      <c r="E102">
+        <v>48</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>65.25</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="7"/>
+        <v>626.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>65.25</v>
+      </c>
+      <c r="E103">
+        <v>49</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <v>65.25</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="7"/>
+        <v>639.45000000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>65.25</v>
+      </c>
+      <c r="E104">
+        <v>50</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104">
+        <v>65.25</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="7"/>
+        <v>652.5</v>
       </c>
     </row>
   </sheetData>

--- a/Real Estate Post.xlsx
+++ b/Real Estate Post.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBB1F15-245D-4EAE-8425-20CBCA74361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37C5B0-EC98-49B5-B811-9B1165468372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AE67DF7-78A0-407D-8E2D-81E9BAB3CF9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9AE67DF7-78A0-407D-8E2D-81E9BAB3CF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="SIZE" sheetId="1" r:id="rId1"/>
+    <sheet name="HARDWARE" sheetId="2" r:id="rId2"/>
+    <sheet name="GROMMETS " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="6">
   <si>
     <t>24" x 30"</t>
   </si>
@@ -49,15 +51,27 @@
   <si>
     <t>18" x 24"</t>
   </si>
+  <si>
+    <t>White 6ft Post (Gothic Cap) +$91.00</t>
+  </si>
+  <si>
+    <t>Real Estate Post Grommets +$0.20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E38542-6FE0-445A-BF52-92460ECF44D8}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A59" sqref="A55:H104"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,4 +3149,6060 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289FAF2C-9BC8-4460-8115-915C8DD0469A}">
+  <dimension ref="A1:I104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H1" s="1">
+        <f>E1*G1/F1</f>
+        <v>112.75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H50" si="0">E2*G2/F2</f>
+        <v>225.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>65.25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>338.25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>563.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>563.75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>130.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>676.5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>152.25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>789.25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>174</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>902</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>195.75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>1014.75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>217.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>1127.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>239.25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>1240.25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>261</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>1353</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>282.75</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>1465.75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>304.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>1578.5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>326.25</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>1691.25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>348</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>1804</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>369.75</v>
+      </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>1916.75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>391.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>2029.5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>413.25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>2142.25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>435</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>2255</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>456.75</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>2367.75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>478.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>2480.5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>500.25</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>2593.25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>522</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>2706</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>543.75</v>
+      </c>
+      <c r="E25" s="2">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>2818.75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>565.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>2931.5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>587.25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>3044.25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>609</v>
+      </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>3157</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>630.75</v>
+      </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>3269.75</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>652.5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>3382.5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>674.25</v>
+      </c>
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>3495.25</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>696</v>
+      </c>
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>3608</v>
+      </c>
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>717.75</v>
+      </c>
+      <c r="E33" s="2">
+        <v>33</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>3720.75</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>739.5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>34</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>3833.5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>761.25</v>
+      </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>3946.25</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>783</v>
+      </c>
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
+      <c r="F36" s="2">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>4059</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>804.75</v>
+      </c>
+      <c r="E37" s="2">
+        <v>37</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>4171.75</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>826.5</v>
+      </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>4284.5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>848.25</v>
+      </c>
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>4397.25</v>
+      </c>
+      <c r="I39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>870</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>4510</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>891.75</v>
+      </c>
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" s="2">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>4622.75</v>
+      </c>
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>913.5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>42</v>
+      </c>
+      <c r="F42" s="2">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>4735.5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>935.25</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43</v>
+      </c>
+      <c r="F43" s="2">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>4848.25</v>
+      </c>
+      <c r="I43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>957</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44</v>
+      </c>
+      <c r="F44" s="2">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>4961</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>978.75</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>5073.75</v>
+      </c>
+      <c r="I45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1000.5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>5186.5</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1022.25</v>
+      </c>
+      <c r="E47" s="2">
+        <v>47</v>
+      </c>
+      <c r="F47" s="2">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>5299.25</v>
+      </c>
+      <c r="I47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1044</v>
+      </c>
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>5412</v>
+      </c>
+      <c r="I48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1065.75</v>
+      </c>
+      <c r="E49" s="2">
+        <v>49</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>5524.75</v>
+      </c>
+      <c r="I49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1087.5</v>
+      </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>563.75</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>5637.5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>65.25</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>520.25</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" ref="H55:H104" si="1">E55*G55/F55</f>
+        <v>104.05</v>
+      </c>
+      <c r="I55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>65.25</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>520.25</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="1"/>
+        <v>208.1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>65.25</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>520.25</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="1"/>
+        <v>312.14999999999998</v>
+      </c>
+      <c r="I57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>65.25</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>520.25</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="1"/>
+        <v>416.2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>65.25</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>520.25</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="1"/>
+        <v>520.25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>65.25</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>520.25</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="1"/>
+        <v>624.29999999999995</v>
+      </c>
+      <c r="I60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>65.25</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>520.25</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="1"/>
+        <v>728.35</v>
+      </c>
+      <c r="I61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>65.25</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>520.25</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="1"/>
+        <v>832.4</v>
+      </c>
+      <c r="I62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>65.25</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>520.25</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="1"/>
+        <v>936.45</v>
+      </c>
+      <c r="I63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>65.25</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>520.25</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="1"/>
+        <v>1040.5</v>
+      </c>
+      <c r="I64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>65.25</v>
+      </c>
+      <c r="E65">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>520.25</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="1"/>
+        <v>1144.55</v>
+      </c>
+      <c r="I65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>65.25</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>520.25</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="1"/>
+        <v>1248.5999999999999</v>
+      </c>
+      <c r="I66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>65.25</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>520.25</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="1"/>
+        <v>1352.65</v>
+      </c>
+      <c r="I67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>65.25</v>
+      </c>
+      <c r="E68">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>520.25</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="1"/>
+        <v>1456.7</v>
+      </c>
+      <c r="I68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>65.25</v>
+      </c>
+      <c r="E69">
+        <v>15</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>520.25</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="1"/>
+        <v>1560.75</v>
+      </c>
+      <c r="I69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>65.25</v>
+      </c>
+      <c r="E70">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>520.25</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="1"/>
+        <v>1664.8</v>
+      </c>
+      <c r="I70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>65.25</v>
+      </c>
+      <c r="E71">
+        <v>17</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>520.25</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="1"/>
+        <v>1768.85</v>
+      </c>
+      <c r="I71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>65.25</v>
+      </c>
+      <c r="E72">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>520.25</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="1"/>
+        <v>1872.9</v>
+      </c>
+      <c r="I72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>65.25</v>
+      </c>
+      <c r="E73">
+        <v>19</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>520.25</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="1"/>
+        <v>1976.95</v>
+      </c>
+      <c r="I73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>65.25</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>520.25</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="1"/>
+        <v>2081</v>
+      </c>
+      <c r="I74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>65.25</v>
+      </c>
+      <c r="E75">
+        <v>21</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>520.25</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="1"/>
+        <v>2185.0500000000002</v>
+      </c>
+      <c r="I75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>65.25</v>
+      </c>
+      <c r="E76">
+        <v>22</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>520.25</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="1"/>
+        <v>2289.1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>65.25</v>
+      </c>
+      <c r="E77">
+        <v>23</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>520.25</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="1"/>
+        <v>2393.15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>65.25</v>
+      </c>
+      <c r="E78">
+        <v>24</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>520.25</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="1"/>
+        <v>2497.1999999999998</v>
+      </c>
+      <c r="I78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>65.25</v>
+      </c>
+      <c r="E79">
+        <v>25</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>520.25</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="1"/>
+        <v>2601.25</v>
+      </c>
+      <c r="I79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>65.25</v>
+      </c>
+      <c r="E80">
+        <v>26</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>520.25</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="1"/>
+        <v>2705.3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>65.25</v>
+      </c>
+      <c r="E81">
+        <v>27</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>520.25</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="1"/>
+        <v>2809.35</v>
+      </c>
+      <c r="I81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>65.25</v>
+      </c>
+      <c r="E82">
+        <v>28</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>520.25</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="1"/>
+        <v>2913.4</v>
+      </c>
+      <c r="I82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>65.25</v>
+      </c>
+      <c r="E83">
+        <v>29</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>520.25</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="1"/>
+        <v>3017.45</v>
+      </c>
+      <c r="I83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>65.25</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>520.25</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="1"/>
+        <v>3121.5</v>
+      </c>
+      <c r="I84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>65.25</v>
+      </c>
+      <c r="E85">
+        <v>31</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>520.25</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="1"/>
+        <v>3225.55</v>
+      </c>
+      <c r="I85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>65.25</v>
+      </c>
+      <c r="E86">
+        <v>32</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>520.25</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="1"/>
+        <v>3329.6</v>
+      </c>
+      <c r="I86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>65.25</v>
+      </c>
+      <c r="E87">
+        <v>33</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>520.25</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="1"/>
+        <v>3433.65</v>
+      </c>
+      <c r="I87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>65.25</v>
+      </c>
+      <c r="E88">
+        <v>34</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>520.25</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="1"/>
+        <v>3537.7</v>
+      </c>
+      <c r="I88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>65.25</v>
+      </c>
+      <c r="E89">
+        <v>35</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>520.25</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="1"/>
+        <v>3641.75</v>
+      </c>
+      <c r="I89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>65.25</v>
+      </c>
+      <c r="E90">
+        <v>36</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>520.25</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="1"/>
+        <v>3745.8</v>
+      </c>
+      <c r="I90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>65.25</v>
+      </c>
+      <c r="E91">
+        <v>37</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>520.25</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="1"/>
+        <v>3849.85</v>
+      </c>
+      <c r="I91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>65.25</v>
+      </c>
+      <c r="E92">
+        <v>38</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>520.25</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="1"/>
+        <v>3953.9</v>
+      </c>
+      <c r="I92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>65.25</v>
+      </c>
+      <c r="E93">
+        <v>39</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>520.25</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="1"/>
+        <v>4057.95</v>
+      </c>
+      <c r="I93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>65.25</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>520.25</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="1"/>
+        <v>4162</v>
+      </c>
+      <c r="I94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>65.25</v>
+      </c>
+      <c r="E95">
+        <v>41</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>520.25</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="1"/>
+        <v>4266.05</v>
+      </c>
+      <c r="I95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>65.25</v>
+      </c>
+      <c r="E96">
+        <v>42</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>520.25</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="1"/>
+        <v>4370.1000000000004</v>
+      </c>
+      <c r="I96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>65.25</v>
+      </c>
+      <c r="E97">
+        <v>43</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>520.25</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="1"/>
+        <v>4474.1499999999996</v>
+      </c>
+      <c r="I97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>65.25</v>
+      </c>
+      <c r="E98">
+        <v>44</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>520.25</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="1"/>
+        <v>4578.2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>65.25</v>
+      </c>
+      <c r="E99">
+        <v>45</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>520.25</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="1"/>
+        <v>4682.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>65.25</v>
+      </c>
+      <c r="E100">
+        <v>46</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <v>520.25</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="1"/>
+        <v>4786.3</v>
+      </c>
+      <c r="I100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>65.25</v>
+      </c>
+      <c r="E101">
+        <v>47</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101">
+        <v>520.25</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="1"/>
+        <v>4890.3500000000004</v>
+      </c>
+      <c r="I101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>65.25</v>
+      </c>
+      <c r="E102">
+        <v>48</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>520.25</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="1"/>
+        <v>4994.3999999999996</v>
+      </c>
+      <c r="I102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>65.25</v>
+      </c>
+      <c r="E103">
+        <v>49</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <v>520.25</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="1"/>
+        <v>5098.45</v>
+      </c>
+      <c r="I103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>65.25</v>
+      </c>
+      <c r="E104">
+        <v>50</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104">
+        <v>520.25</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="1"/>
+        <v>5202.5</v>
+      </c>
+      <c r="I104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0B18B5-FD62-4C09-94DC-F077C6E3422B}">
+  <dimension ref="A1:I104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55:I104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H1" s="1">
+        <f>E1*G1/F1</f>
+        <v>21.95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H50" si="0">E2*G2/F2</f>
+        <v>43.9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>65.25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>65.849999999999994</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>87.8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>563.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>109.75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>130.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>131.69999999999999</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>152.25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>153.65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>174</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>175.6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>195.75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>197.55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>217.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>219.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>239.25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>241.45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>261</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>263.39999999999998</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>282.75</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>285.35000000000002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>304.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>307.3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>326.25</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>329.25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>348</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>351.2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>369.75</v>
+      </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>373.15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>391.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>395.1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>413.25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>417.05</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>435</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>439</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>456.75</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>460.95</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>478.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>482.9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>500.25</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>504.85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>522</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>526.79999999999995</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>543.75</v>
+      </c>
+      <c r="E25" s="2">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>548.75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>565.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>570.70000000000005</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>587.25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>592.65</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>609</v>
+      </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>614.6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>630.75</v>
+      </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>636.54999999999995</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>652.5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>658.5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>674.25</v>
+      </c>
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>680.45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>696</v>
+      </c>
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>702.4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>717.75</v>
+      </c>
+      <c r="E33" s="2">
+        <v>33</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>724.35</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>739.5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>34</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>746.3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>761.25</v>
+      </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>768.25</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>783</v>
+      </c>
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
+      <c r="F36" s="2">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>790.2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>804.75</v>
+      </c>
+      <c r="E37" s="2">
+        <v>37</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>812.15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>826.5</v>
+      </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>834.1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>848.25</v>
+      </c>
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>856.05</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>870</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>878</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>891.75</v>
+      </c>
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" s="2">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>899.95</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>913.5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>42</v>
+      </c>
+      <c r="F42" s="2">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>921.9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>935.25</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43</v>
+      </c>
+      <c r="F43" s="2">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>943.85</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>957</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44</v>
+      </c>
+      <c r="F44" s="2">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>965.8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>978.75</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>987.75</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1000.5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>1009.7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1022.25</v>
+      </c>
+      <c r="E47" s="2">
+        <v>47</v>
+      </c>
+      <c r="F47" s="2">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>1031.6500000000001</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1044</v>
+      </c>
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>1053.5999999999999</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1065.75</v>
+      </c>
+      <c r="E49" s="2">
+        <v>49</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>1075.55</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1087.5</v>
+      </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>109.75</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>1097.5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>65.25</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>66.25</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" ref="H55:H104" si="1">E55*G55/F55</f>
+        <v>13.25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>65.25</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>66.25</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="1"/>
+        <v>26.5</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>65.25</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>66.25</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="1"/>
+        <v>39.75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>65.25</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>66.25</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>65.25</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>66.25</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="1"/>
+        <v>66.25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>65.25</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>66.25</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="1"/>
+        <v>79.5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>65.25</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>66.25</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="1"/>
+        <v>92.75</v>
+      </c>
+      <c r="I61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>65.25</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>66.25</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="I62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>65.25</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>66.25</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="1"/>
+        <v>119.25</v>
+      </c>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>65.25</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>66.25</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="1"/>
+        <v>132.5</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>65.25</v>
+      </c>
+      <c r="E65">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>66.25</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="1"/>
+        <v>145.75</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>65.25</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>66.25</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>65.25</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>66.25</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="1"/>
+        <v>172.25</v>
+      </c>
+      <c r="I67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>65.25</v>
+      </c>
+      <c r="E68">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>66.25</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="1"/>
+        <v>185.5</v>
+      </c>
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>65.25</v>
+      </c>
+      <c r="E69">
+        <v>15</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>66.25</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="1"/>
+        <v>198.75</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>65.25</v>
+      </c>
+      <c r="E70">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>66.25</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>65.25</v>
+      </c>
+      <c r="E71">
+        <v>17</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>66.25</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="1"/>
+        <v>225.25</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>65.25</v>
+      </c>
+      <c r="E72">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>66.25</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="1"/>
+        <v>238.5</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>65.25</v>
+      </c>
+      <c r="E73">
+        <v>19</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>66.25</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="1"/>
+        <v>251.75</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>65.25</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>66.25</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>65.25</v>
+      </c>
+      <c r="E75">
+        <v>21</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>66.25</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="1"/>
+        <v>278.25</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>65.25</v>
+      </c>
+      <c r="E76">
+        <v>22</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>66.25</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="1"/>
+        <v>291.5</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>65.25</v>
+      </c>
+      <c r="E77">
+        <v>23</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>66.25</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="1"/>
+        <v>304.75</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>65.25</v>
+      </c>
+      <c r="E78">
+        <v>24</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>66.25</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
+      <c r="I78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>65.25</v>
+      </c>
+      <c r="E79">
+        <v>25</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>66.25</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="1"/>
+        <v>331.25</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>65.25</v>
+      </c>
+      <c r="E80">
+        <v>26</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>66.25</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="1"/>
+        <v>344.5</v>
+      </c>
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>65.25</v>
+      </c>
+      <c r="E81">
+        <v>27</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>66.25</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="1"/>
+        <v>357.75</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>65.25</v>
+      </c>
+      <c r="E82">
+        <v>28</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>66.25</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="1"/>
+        <v>371</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>65.25</v>
+      </c>
+      <c r="E83">
+        <v>29</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>66.25</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="1"/>
+        <v>384.25</v>
+      </c>
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>65.25</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>66.25</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="1"/>
+        <v>397.5</v>
+      </c>
+      <c r="I84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>65.25</v>
+      </c>
+      <c r="E85">
+        <v>31</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>66.25</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="1"/>
+        <v>410.75</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>65.25</v>
+      </c>
+      <c r="E86">
+        <v>32</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>66.25</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="1"/>
+        <v>424</v>
+      </c>
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>65.25</v>
+      </c>
+      <c r="E87">
+        <v>33</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>66.25</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="1"/>
+        <v>437.25</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>65.25</v>
+      </c>
+      <c r="E88">
+        <v>34</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>66.25</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="1"/>
+        <v>450.5</v>
+      </c>
+      <c r="I88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>65.25</v>
+      </c>
+      <c r="E89">
+        <v>35</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>66.25</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="1"/>
+        <v>463.75</v>
+      </c>
+      <c r="I89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>65.25</v>
+      </c>
+      <c r="E90">
+        <v>36</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>66.25</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="1"/>
+        <v>477</v>
+      </c>
+      <c r="I90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>65.25</v>
+      </c>
+      <c r="E91">
+        <v>37</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>66.25</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="1"/>
+        <v>490.25</v>
+      </c>
+      <c r="I91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>65.25</v>
+      </c>
+      <c r="E92">
+        <v>38</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>66.25</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="1"/>
+        <v>503.5</v>
+      </c>
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>65.25</v>
+      </c>
+      <c r="E93">
+        <v>39</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>66.25</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="1"/>
+        <v>516.75</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>65.25</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>66.25</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+      <c r="I94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>65.25</v>
+      </c>
+      <c r="E95">
+        <v>41</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>66.25</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="1"/>
+        <v>543.25</v>
+      </c>
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>65.25</v>
+      </c>
+      <c r="E96">
+        <v>42</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>66.25</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="1"/>
+        <v>556.5</v>
+      </c>
+      <c r="I96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>65.25</v>
+      </c>
+      <c r="E97">
+        <v>43</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>66.25</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="1"/>
+        <v>569.75</v>
+      </c>
+      <c r="I97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>65.25</v>
+      </c>
+      <c r="E98">
+        <v>44</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>66.25</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="1"/>
+        <v>583</v>
+      </c>
+      <c r="I98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>65.25</v>
+      </c>
+      <c r="E99">
+        <v>45</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>66.25</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="1"/>
+        <v>596.25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>65.25</v>
+      </c>
+      <c r="E100">
+        <v>46</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <v>66.25</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="1"/>
+        <v>609.5</v>
+      </c>
+      <c r="I100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>65.25</v>
+      </c>
+      <c r="E101">
+        <v>47</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101">
+        <v>66.25</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="1"/>
+        <v>622.75</v>
+      </c>
+      <c r="I101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>65.25</v>
+      </c>
+      <c r="E102">
+        <v>48</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>66.25</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="1"/>
+        <v>636</v>
+      </c>
+      <c r="I102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>65.25</v>
+      </c>
+      <c r="E103">
+        <v>49</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <v>66.25</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="1"/>
+        <v>649.25</v>
+      </c>
+      <c r="I103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>65.25</v>
+      </c>
+      <c r="E104">
+        <v>50</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104">
+        <v>66.25</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="1"/>
+        <v>662.5</v>
+      </c>
+      <c r="I104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>